--- a/sequence/sequence調査.xlsx
+++ b/sequence/sequence調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{CC0FC08C-D0A6-43EF-BE08-3BB6C221FC9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{04E41C80-E4BA-4522-BFF0-660FB63825B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7570322E-C509-446E-8D0F-99C3B7FA271D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -1173,9 +1173,6 @@
     <t xml:space="preserve"> sample_seq</t>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "SELECT relname FROM pg_class WHERE relkind = 'S';"</t>
-  </si>
-  <si>
     <t>ソースコードのbackend&gt;commands&gt;sequence.cを見ると並列処理でのシーケンス番号の採番はエラーにしていた。</t>
     <rPh sb="35" eb="36">
       <t>ミ</t>
@@ -1185,6 +1182,259 @@
   <si>
     <t>メモ：</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちょっとしたエラー動作確認</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)一時シーケンスのスキーマ変更</t>
+    <rPh sb="2" eb="4">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    alter sequence temp_seq rename to rename_seq;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    drop sequence rename_seq;</t>
+  </si>
+  <si>
+    <t>ERROR: 一時スキーマへ、または一時スキーマからオブジェクトを移動できません</t>
+  </si>
+  <si>
+    <t>SQLステート:0A000</t>
+  </si>
+  <si>
+    <t>コンテキスト:SQL文 "alter sequence rename_seq set schema public"</t>
+  </si>
+  <si>
+    <t>PL/pgSQL関数inline_code_blockの7行目 - SQL ステートメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    alter sequence rename_seq set schema public;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "SELECT relname FROM pg_class WHERE relkind = 'S';"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    alter sequence temp_seq rename to rename_seq;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    alter sequence rename_seq maxvalue -1;</t>
+  </si>
+  <si>
+    <t>ERROR:  MINVALUE (1)はMAXVALUE (-1)より小さくなければなりません</t>
+  </si>
+  <si>
+    <t>CONTEXT:  SQL文 "alter sequence rename_seq maxvalue -1"</t>
+  </si>
+  <si>
+    <t>2)最小値を下回る値を最大値に設定</t>
+    <rPh sb="2" eb="5">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    select into x nextval('sample_seq');</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    raise notice 'next_val=%',x;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "alter sequence sample_seq maxvalue 2;"</t>
+  </si>
+  <si>
+    <t>ERROR:  RESTART の値(100)は MAXVALUE(2) より大きくすることはできません</t>
+  </si>
+  <si>
+    <t>3)現採番値を下回る値を最大値に設定。</t>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE SEQUENCE sample_seq2 maxvalue 10 minvalue 0 start 0 increment 50;"</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select nextval('sample_seq2');"</t>
+  </si>
+  <si>
+    <t>ERROR:  nextval: シーケンス"sample_seq2"の最大値(10)に達しました</t>
+  </si>
+  <si>
+    <t>4)一回しかインクリメントできないシーケンス作成。2回nextvalします。</t>
+    <rPh sb="2" eb="4">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\Users\user&gt;psql -U postgres -p 5432 -d testdb -c "select nextval('sample_seq3');"</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select nextval('sample_seq3');"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5)シーケンスがサイクルした際の次回取得値はSTART値になることを確認</t>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE SEQUENCE sample_seq3 maxvalue 5 increment 7 cycle;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    create temp sequence temp_seq;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "create sequence temp_seq_cache cache 100;"</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "create sequence temp_seq_nocache;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DO $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x int;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FOR i IN 1..2000000 LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select into x nextval('temp_seq_nocache'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  END LOOP;</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>6)cache動作確認。まずはcacheありとなしのシーケンスを作成</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7)採番ループの200万ループを5回計測</t>
+    <rPh sb="2" eb="4">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Query returned successfully with no result in 5.7 secs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select into x nextval('temp_seq_cache'); </t>
+  </si>
+  <si>
+    <t>キャッシュなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャッシュあり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Query returned successfully with no result in 4.8 secs.</t>
   </si>
 </sst>
 </file>
@@ -1732,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:F120"/>
+  <dimension ref="B1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2223,7 +2473,7 @@
     </row>
     <row r="94" spans="2:6" s="5" customFormat="1">
       <c r="B94" s="5" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F94" s="6"/>
     </row>
@@ -2235,7 +2485,7 @@
     </row>
     <row r="96" spans="2:6" s="5" customFormat="1">
       <c r="B96" s="5" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F96" s="6"/>
     </row>
@@ -2323,7 +2573,7 @@
     </row>
     <row r="113" spans="2:6" s="5" customFormat="1">
       <c r="B113" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F113" s="6"/>
     </row>
@@ -2353,13 +2603,489 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" s="5" customFormat="1">
+      <c r="B125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="2:6" s="5" customFormat="1">
+      <c r="B126" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="2:6" s="5" customFormat="1">
+      <c r="B127" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="2:6" s="5" customFormat="1">
+      <c r="B128" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="2:6" s="5" customFormat="1">
+      <c r="B129" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="2:6" s="5" customFormat="1">
+      <c r="B130" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="2:6" s="5" customFormat="1">
+      <c r="B131" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="2:6" s="5" customFormat="1">
+      <c r="B132" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="2:6" s="5" customFormat="1">
+      <c r="B133" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="135" spans="2:6" s="5" customFormat="1">
+      <c r="B135" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="2:6" s="5" customFormat="1">
+      <c r="B136" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="2:6" s="5" customFormat="1">
+      <c r="B137" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="2:6" s="5" customFormat="1">
+      <c r="B138" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" s="5" customFormat="1">
+      <c r="B141" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="2:6" s="5" customFormat="1">
+      <c r="B142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="2:6" s="5" customFormat="1">
+      <c r="B143" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="2:6" s="5" customFormat="1">
+      <c r="B144" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="2:6" s="5" customFormat="1">
+      <c r="B145" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="2:6" s="5" customFormat="1">
+      <c r="B146" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="2:6" s="5" customFormat="1">
+      <c r="B147" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="2:6" s="5" customFormat="1">
+      <c r="B148" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="2:6" s="5" customFormat="1">
+      <c r="B149" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="151" spans="2:6" s="5" customFormat="1">
+      <c r="B151" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="2:6" s="5" customFormat="1">
+      <c r="B152" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="2:6" s="5" customFormat="1">
+      <c r="B153" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" s="5" customFormat="1">
+      <c r="B156" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="2:6" s="5" customFormat="1">
+      <c r="B157" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" s="5" customFormat="1">
+      <c r="B160" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="2:6" s="5" customFormat="1">
+      <c r="B161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="2:6" s="5" customFormat="1">
+      <c r="B162" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="2:6" s="5" customFormat="1">
+      <c r="B163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="2:6" s="5" customFormat="1">
+      <c r="B164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="2:6" s="5" customFormat="1">
+      <c r="B165" s="5">
+        <v>0</v>
+      </c>
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="2:6" s="5" customFormat="1">
+      <c r="B166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="2:6" s="5" customFormat="1">
+      <c r="B167" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="2:6" s="5" customFormat="1">
+      <c r="B168" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" s="5" customFormat="1">
+      <c r="B171" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="2:6" s="5" customFormat="1">
+      <c r="B172" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="2:6" s="5" customFormat="1">
+      <c r="B173" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="2:6" s="5" customFormat="1">
+      <c r="B174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="2:6" s="5" customFormat="1">
+      <c r="B175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="2:6" s="5" customFormat="1">
+      <c r="B176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="2:6" s="5" customFormat="1">
+      <c r="B177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="2:6" s="5" customFormat="1">
+      <c r="B178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="2:6" s="5" customFormat="1">
+      <c r="B179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="2:6" s="5" customFormat="1">
+      <c r="B180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" s="5" customFormat="1">
+      <c r="B183" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="2:6" s="5" customFormat="1">
+      <c r="B184" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="2:6" s="5" customFormat="1">
+      <c r="B185" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="2:6" s="5" customFormat="1">
+      <c r="B186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" s="5" customFormat="1">
+      <c r="B190" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="2:6" s="5" customFormat="1">
+      <c r="B191" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="2:6" s="5" customFormat="1">
+      <c r="B192" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="2:6" s="5" customFormat="1">
+      <c r="B193" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="2:6" s="5" customFormat="1">
+      <c r="B194" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="2:6" s="5" customFormat="1">
+      <c r="B195" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="2:6" s="5" customFormat="1">
+      <c r="B196" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="2:6" s="5" customFormat="1">
+      <c r="B197" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="2:6" s="5" customFormat="1">
+      <c r="B198" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="2:6" s="5" customFormat="1">
+      <c r="B199" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="201" spans="2:6" s="5" customFormat="1">
+      <c r="B201" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" s="5" customFormat="1">
+      <c r="B204" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="2:6" s="5" customFormat="1">
+      <c r="B205" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="2:6" s="5" customFormat="1">
+      <c r="B206" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="2:6" s="5" customFormat="1">
+      <c r="B207" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="2:6" s="5" customFormat="1">
+      <c r="B208" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="2:6" s="5" customFormat="1">
+      <c r="B209" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="2:6" s="5" customFormat="1">
+      <c r="B210" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="2:6" s="5" customFormat="1">
+      <c r="B211" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="2:6" s="5" customFormat="1">
+      <c r="B212" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="214" spans="2:6" s="5" customFormat="1">
+      <c r="B214" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F214" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
